--- a/MS/MS_skipped_output.xlsx
+++ b/MS/MS_skipped_output.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2783,7 +2783,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3053,7 +3053,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3324,7 +3324,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3414,7 +3414,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3564,7 +3564,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3624,7 +3624,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3804,7 +3804,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3954,7 +3954,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3984,7 +3984,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4014,7 +4014,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4044,7 +4044,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4074,7 +4074,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4104,7 +4104,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4134,7 +4134,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4194,7 +4194,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4224,7 +4224,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4254,7 +4254,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4374,7 +4374,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4464,7 +4464,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4494,7 +4494,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4584,7 +4584,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4614,7 +4614,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4674,7 +4674,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4794,7 +4794,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4824,7 +4824,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4854,7 +4854,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4914,7 +4914,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4944,7 +4944,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5034,7 +5034,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5064,7 +5064,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5094,7 +5094,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5184,7 +5184,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5214,7 +5214,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5244,7 +5244,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5334,7 +5334,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -5424,7 +5424,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -5454,7 +5454,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -5484,7 +5484,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -5514,7 +5514,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5544,7 +5544,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5574,7 +5574,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -5664,7 +5664,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -5694,7 +5694,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -5724,7 +5724,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -5784,7 +5784,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -5814,7 +5814,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -5874,7 +5874,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -5904,7 +5904,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -5964,7 +5964,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6024,7 +6024,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6114,7 +6114,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6144,7 +6144,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6174,7 +6174,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6204,7 +6204,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6234,7 +6234,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -6294,7 +6294,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -6414,7 +6414,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -6444,7 +6444,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -6474,7 +6474,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -6534,7 +6534,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -6594,7 +6594,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -6624,7 +6624,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -6654,7 +6654,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -6684,7 +6684,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -6714,7 +6714,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -6834,7 +6834,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -6864,7 +6864,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -6894,7 +6894,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -6924,7 +6924,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -6954,7 +6954,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -7014,7 +7014,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -7074,7 +7074,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -7104,7 +7104,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7134,7 +7134,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7164,7 +7164,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -7194,7 +7194,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -7224,7 +7224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -7254,7 +7254,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -7314,7 +7314,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -7404,7 +7404,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -7434,7 +7434,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -7464,7 +7464,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -7494,7 +7494,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -7554,7 +7554,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -7584,7 +7584,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -7614,7 +7614,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -7644,7 +7644,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -7674,7 +7674,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -7704,7 +7704,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -7734,7 +7734,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -7824,7 +7824,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -7854,7 +7854,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -7884,7 +7884,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -7914,7 +7914,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -7944,7 +7944,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -7974,7 +7974,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -8034,7 +8034,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -8064,7 +8064,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -8094,7 +8094,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -8124,7 +8124,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -8154,7 +8154,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -8184,7 +8184,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -8214,7 +8214,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -8274,7 +8274,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -8334,7 +8334,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -8364,7 +8364,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -8394,7 +8394,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -8424,7 +8424,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>99999999</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">

--- a/MS/MS_skipped_output.xlsx
+++ b/MS/MS_skipped_output.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -533,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -923,7 +923,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1673,7 +1673,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2423,7 +2423,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2783,7 +2783,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2903,7 +2903,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3053,7 +3053,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3324,7 +3324,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3414,7 +3414,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3504,7 +3504,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3564,7 +3564,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3624,7 +3624,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3804,7 +3804,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3864,7 +3864,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3954,7 +3954,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3984,7 +3984,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4014,7 +4014,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4044,7 +4044,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4074,7 +4074,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4104,7 +4104,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4134,7 +4134,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4164,7 +4164,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4194,7 +4194,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4224,7 +4224,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4254,7 +4254,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4374,7 +4374,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4434,7 +4434,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4464,7 +4464,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4494,7 +4494,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4584,7 +4584,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4614,7 +4614,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4674,7 +4674,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4794,7 +4794,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4824,7 +4824,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4854,7 +4854,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4914,7 +4914,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4944,7 +4944,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4974,7 +4974,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5004,7 +5004,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5034,7 +5034,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5064,7 +5064,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5094,7 +5094,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5124,7 +5124,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5184,7 +5184,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5214,7 +5214,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5244,7 +5244,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5334,7 +5334,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -5424,7 +5424,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -5454,7 +5454,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -5484,7 +5484,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -5514,7 +5514,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -5544,7 +5544,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -5574,7 +5574,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -5664,7 +5664,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -5694,7 +5694,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -5724,7 +5724,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -5784,7 +5784,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -5814,7 +5814,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -5874,7 +5874,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -5904,7 +5904,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -5964,7 +5964,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -6024,7 +6024,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -6114,7 +6114,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -6144,7 +6144,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -6174,7 +6174,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -6204,7 +6204,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -6234,7 +6234,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -6294,7 +6294,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -6414,7 +6414,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -6444,7 +6444,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -6474,7 +6474,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -6504,7 +6504,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -6534,7 +6534,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -6594,7 +6594,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -6624,7 +6624,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -6654,7 +6654,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -6684,7 +6684,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -6714,7 +6714,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -6834,7 +6834,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -6864,7 +6864,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -6894,7 +6894,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -6924,7 +6924,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -6954,7 +6954,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -7014,7 +7014,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -7074,7 +7074,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -7104,7 +7104,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -7134,7 +7134,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -7164,7 +7164,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -7194,7 +7194,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -7224,7 +7224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -7254,7 +7254,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -7314,7 +7314,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -7404,7 +7404,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -7434,7 +7434,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -7464,7 +7464,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -7494,7 +7494,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -7524,7 +7524,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -7554,7 +7554,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -7584,7 +7584,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -7614,7 +7614,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -7644,7 +7644,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -7674,7 +7674,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -7704,7 +7704,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -7734,7 +7734,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -7824,7 +7824,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -7854,7 +7854,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -7884,7 +7884,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -7914,7 +7914,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -7944,7 +7944,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -7974,7 +7974,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -8034,7 +8034,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -8064,7 +8064,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -8094,7 +8094,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -8124,7 +8124,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -8154,7 +8154,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -8184,7 +8184,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -8214,7 +8214,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -8274,7 +8274,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -8334,7 +8334,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -8364,7 +8364,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -8394,7 +8394,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -8424,7 +8424,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>01012025</t>
+          <t>03012025</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
